--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\PycharmProjects\robo_boby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5068A5-DC94-44C7-9B97-7293CA2D1235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3B8FE0-72B5-4C71-A144-67FA967022BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,10 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="24">
-  <si>
-    <t>UND</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="33">
   <si>
     <t>Código</t>
   </si>
@@ -98,6 +95,36 @@
   </si>
   <si>
     <t>CONJUNTO BANDEJA TINTA</t>
+  </si>
+  <si>
+    <t>CONJUNTO KIT REPARO TORRE</t>
+  </si>
+  <si>
+    <t>CONJUNTO ELEVADOR BOBINA NR12</t>
+  </si>
+  <si>
+    <t>CONJUNTO KIT RAPARO BPF</t>
+  </si>
+  <si>
+    <t>BASE SUPORTE ANILOX USI</t>
+  </si>
+  <si>
+    <t>ABRACADEIRA 25/25</t>
+  </si>
+  <si>
+    <t>EIXO CLINDRO APOIO CORREIA</t>
+  </si>
+  <si>
+    <t>CILINDRO APOIO CORREIA</t>
+  </si>
+  <si>
+    <t>SUPORTE ROLDANA GUIA</t>
+  </si>
+  <si>
+    <t>HASTE ROLDANA GUIA</t>
+  </si>
+  <si>
+    <t>ROLDANA GUIA</t>
   </si>
 </sst>
 </file>
@@ -450,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4247F9-C958-459D-B77C-585153FC93C6}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,251 +492,156 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>17811</v>
+        <v>21454</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>21286</v>
+        <v>21546</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>21339</v>
+        <v>21450</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>21347</v>
+        <v>21507</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>21363</v>
+        <v>21526</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>21369</v>
+        <v>21535</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>21387</v>
+        <v>21536</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>21473</v>
+        <v>21541</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>21474</v>
+        <v>21542</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>21496</v>
+        <v>21543</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>21497</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>21498</v>
-      </c>
-      <c r="B13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>21499</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>21500</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>21501</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>21502</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>21503</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -729,16 +661,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,13 +678,13 @@
         <v>17811</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -760,13 +692,13 @@
         <v>21286</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -774,13 +706,13 @@
         <v>21339</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -788,13 +720,13 @@
         <v>21347</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -802,13 +734,13 @@
         <v>21363</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -816,13 +748,13 @@
         <v>21369</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -830,13 +762,13 @@
         <v>21387</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -844,13 +776,13 @@
         <v>21473</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -858,13 +790,13 @@
         <v>21474</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -872,13 +804,13 @@
         <v>21496</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -886,13 +818,13 @@
         <v>21497</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -900,13 +832,13 @@
         <v>21498</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -914,13 +846,13 @@
         <v>21499</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -928,13 +860,13 @@
         <v>21500</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -942,13 +874,13 @@
         <v>21501</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -956,13 +888,13 @@
         <v>21502</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -970,235 +902,235 @@
         <v>21503</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="D39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="D41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="D48" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="D49" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="D50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="D51" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="D52" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="D53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="D54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="D55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\PycharmProjects\robo_boby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331028FF-91F0-486A-BDD9-D393E53EBB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2A1396-1733-44F5-A971-B935C5F9D09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1650" yWindow="435" windowWidth="23295" windowHeight="12675" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Código</t>
   </si>
@@ -46,55 +46,31 @@
     <t>Unitário</t>
   </si>
   <si>
-    <t>CONJUNTO CHAVE SEL 3 POSICOES</t>
-  </si>
-  <si>
-    <t>BASE FRONTAL 1 PROTECAO</t>
-  </si>
-  <si>
-    <t>CONJUNTO CILINDRO ROTO</t>
-  </si>
-  <si>
-    <t>CONJUNTO CIL ROTO 1500</t>
-  </si>
-  <si>
-    <t>MAQUINA MEDIDOR ESPESSURA</t>
-  </si>
-  <si>
-    <t>LATERAL GAV INTERNA PIN 500</t>
-  </si>
-  <si>
-    <t>BASE PORTA GAVETA 500</t>
-  </si>
-  <si>
-    <t>SUPORTE MOV GAVETA 500</t>
-  </si>
-  <si>
-    <t>CONJUNTO BASE PORTA GAVETA</t>
-  </si>
-  <si>
-    <t>BASE PORTA ANILOX</t>
-  </si>
-  <si>
-    <t>LATERAL GAVETA INTERNA 200</t>
-  </si>
-  <si>
-    <t>SUPORTE MOV GAVETA 200</t>
-  </si>
-  <si>
-    <t>HASTE FIXACAO TRASEIRA</t>
-  </si>
-  <si>
-    <t>HASTE FIXACAO CIL DULO D 25</t>
-  </si>
-  <si>
-    <t>CONJUNTO GUIA LINEAR LIMITADOR</t>
-  </si>
-  <si>
-    <t>TIRANTE FIX INTERRUPTOR SEG</t>
-  </si>
-  <si>
-    <t>TIRANTE FIX CHAVE INTERRUPTOR</t>
+    <t>CONJUNTO PAINEL ILUMINACAO</t>
+  </si>
+  <si>
+    <t>MESA FIXADORA REDUTOR USI</t>
+  </si>
+  <si>
+    <t>HASTE SUSTENTACAO PLATAFORMA</t>
+  </si>
+  <si>
+    <t>REFORCO QUADRO PISO C</t>
+  </si>
+  <si>
+    <t>REFORCO INTERNO QUADRO PISO C</t>
+  </si>
+  <si>
+    <t>HASTE CENTRAL 1640</t>
+  </si>
+  <si>
+    <t>HASTE SUPERIOR 1150</t>
+  </si>
+  <si>
+    <t>HASTE CENTRAL 1090</t>
+  </si>
+  <si>
+    <t>FIXACAO LATERAL PLATAFORMA</t>
   </si>
 </sst>
 </file>
@@ -447,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4247F9-C958-459D-B77C-585153FC93C6}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -476,7 +452,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>17646</v>
+        <v>21682</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -490,7 +466,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>17815</v>
+        <v>21560</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -504,7 +480,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>20787</v>
+        <v>21565</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -518,7 +494,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>20808</v>
+        <v>21572</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -532,7 +508,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>20864</v>
+        <v>21574</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -546,7 +522,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>21341</v>
+        <v>21578</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -560,7 +536,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>21343</v>
+        <v>21579</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -574,7 +550,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>21346</v>
+        <v>21580</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -588,7 +564,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>21365</v>
+        <v>21584</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -598,108 +574,6 @@
       </c>
       <c r="D10" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>21379</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>21382</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>21385</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>21388</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>21451</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>21504</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>21508</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>21537</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>21538</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -712,7 +586,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\PycharmProjects\robo_boby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF2A1396-1733-44F5-A971-B935C5F9D09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274C370A-B63B-4B2D-8EA1-FC328443F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
   <si>
     <t>Código</t>
   </si>
@@ -34,43 +34,94 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t>UN</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Un</t>
-  </si>
-  <si>
     <t>Unitário</t>
   </si>
   <si>
-    <t>CONJUNTO PAINEL ILUMINACAO</t>
-  </si>
-  <si>
-    <t>MESA FIXADORA REDUTOR USI</t>
-  </si>
-  <si>
-    <t>HASTE SUSTENTACAO PLATAFORMA</t>
-  </si>
-  <si>
-    <t>REFORCO QUADRO PISO C</t>
-  </si>
-  <si>
-    <t>REFORCO INTERNO QUADRO PISO C</t>
-  </si>
-  <si>
-    <t>HASTE CENTRAL 1640</t>
-  </si>
-  <si>
-    <t>HASTE SUPERIOR 1150</t>
-  </si>
-  <si>
-    <t>HASTE CENTRAL 1090</t>
-  </si>
-  <si>
-    <t>FIXACAO LATERAL PLATAFORMA</t>
+    <t>UNID</t>
+  </si>
+  <si>
+    <t>CONJUNTO IMPRESSORA FLEXO 1500</t>
+  </si>
+  <si>
+    <t>QUEIMADOR FILTRO EXTR. 8060</t>
+  </si>
+  <si>
+    <t>EIXO BOBINADOR MICROFURO</t>
+  </si>
+  <si>
+    <t>CILINDRO GUIA CORTE SOLDA</t>
+  </si>
+  <si>
+    <t>TAMPA GUIA GARFO</t>
+  </si>
+  <si>
+    <t>CONJUNTO GUIA FACA BPF</t>
+  </si>
+  <si>
+    <t>LATERAL 2400 PISO C</t>
+  </si>
+  <si>
+    <t>LATERAL 5100 PISO C</t>
+  </si>
+  <si>
+    <t>REFORCO INTERNO PISO C</t>
+  </si>
+  <si>
+    <t>BASE CORPO DOBRA 2</t>
+  </si>
+  <si>
+    <t>EIXO ACOPLAMENTO RQ30</t>
+  </si>
+  <si>
+    <t>PONTEIRA GUIA CENTRAL</t>
+  </si>
+  <si>
+    <t>PORTA PORCA FUSO</t>
+  </si>
+  <si>
+    <t>FLANGE FIXACAO INTERNA</t>
+  </si>
+  <si>
+    <t>EIXO CILINDRO LATERAL</t>
+  </si>
+  <si>
+    <t>FIXACAO CORPO BRACO</t>
+  </si>
+  <si>
+    <t>HASTE VERTICAL</t>
+  </si>
+  <si>
+    <t>HASTE HORIZONTAL</t>
+  </si>
+  <si>
+    <t>HASTE CENTRAL PG</t>
+  </si>
+  <si>
+    <t>BASE HASTE HORIZONTAL</t>
+  </si>
+  <si>
+    <t>HASTE MENOR CENTRAL</t>
+  </si>
+  <si>
+    <t>SUPORTE CILILINDRO MOVEL</t>
+  </si>
+  <si>
+    <t>BASE PARAFUSO REGULAGEM DOBRA</t>
+  </si>
+  <si>
+    <t>FIXACAO PARAFUSO REG DOBRA</t>
+  </si>
+  <si>
+    <t>LATERAL ESQUEDO REGULAGEM</t>
+  </si>
+  <si>
+    <t>CENTRAL SUPORTE REGULAGEM</t>
+  </si>
+  <si>
+    <t>RODA BORRACHA TORRE</t>
   </si>
 </sst>
 </file>
@@ -423,17 +474,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4247F9-C958-459D-B77C-585153FC93C6}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -447,133 +498,385 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>21682</v>
+        <v>20972</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>21560</v>
+        <v>17229</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>21565</v>
+        <v>21547</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>21572</v>
+        <v>21548</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>21574</v>
+        <v>21551</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>21578</v>
+        <v>21554</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>21579</v>
+        <v>21570</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>21580</v>
+        <v>21571</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>21584</v>
+        <v>21573</v>
       </c>
       <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>21595</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3</v>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>21596</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>21603</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>21607</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>21612</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>21613</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>21622</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>21626</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>21627</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>21628</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>21629</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21630</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21631</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21635</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>21636</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>21638</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21640</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>76597</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\PycharmProjects\robo_boby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274C370A-B63B-4B2D-8EA1-FC328443F70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087CF703-1EA8-42DF-BAD2-BF83852F1A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Código</t>
   </si>
@@ -34,94 +34,88 @@
     <t>Descrição</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Unitário</t>
   </si>
   <si>
     <t>UNID</t>
   </si>
   <si>
-    <t>CONJUNTO IMPRESSORA FLEXO 1500</t>
-  </si>
-  <si>
-    <t>QUEIMADOR FILTRO EXTR. 8060</t>
-  </si>
-  <si>
-    <t>EIXO BOBINADOR MICROFURO</t>
-  </si>
-  <si>
-    <t>CILINDRO GUIA CORTE SOLDA</t>
-  </si>
-  <si>
-    <t>TAMPA GUIA GARFO</t>
-  </si>
-  <si>
-    <t>CONJUNTO GUIA FACA BPF</t>
-  </si>
-  <si>
-    <t>LATERAL 2400 PISO C</t>
-  </si>
-  <si>
-    <t>LATERAL 5100 PISO C</t>
-  </si>
-  <si>
-    <t>REFORCO INTERNO PISO C</t>
-  </si>
-  <si>
-    <t>BASE CORPO DOBRA 2</t>
-  </si>
-  <si>
-    <t>EIXO ACOPLAMENTO RQ30</t>
-  </si>
-  <si>
-    <t>PONTEIRA GUIA CENTRAL</t>
-  </si>
-  <si>
-    <t>PORTA PORCA FUSO</t>
-  </si>
-  <si>
-    <t>FLANGE FIXACAO INTERNA</t>
-  </si>
-  <si>
-    <t>EIXO CILINDRO LATERAL</t>
-  </si>
-  <si>
-    <t>FIXACAO CORPO BRACO</t>
-  </si>
-  <si>
-    <t>HASTE VERTICAL</t>
-  </si>
-  <si>
-    <t>HASTE HORIZONTAL</t>
-  </si>
-  <si>
-    <t>HASTE CENTRAL PG</t>
-  </si>
-  <si>
-    <t>BASE HASTE HORIZONTAL</t>
-  </si>
-  <si>
-    <t>HASTE MENOR CENTRAL</t>
-  </si>
-  <si>
-    <t>SUPORTE CILILINDRO MOVEL</t>
-  </si>
-  <si>
-    <t>BASE PARAFUSO REGULAGEM DOBRA</t>
-  </si>
-  <si>
-    <t>FIXACAO PARAFUSO REG DOBRA</t>
-  </si>
-  <si>
-    <t>LATERAL ESQUEDO REGULAGEM</t>
-  </si>
-  <si>
-    <t>CENTRAL SUPORTE REGULAGEM</t>
-  </si>
-  <si>
-    <t>RODA BORRACHA TORRE</t>
+    <t>CONJUNTO IMPRESSORA FLEXO 500</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>SUPORTE MANCAL DOBRA BPF</t>
+  </si>
+  <si>
+    <t>SUPORTE MEIO CILINDRO DOBRA</t>
+  </si>
+  <si>
+    <t>CONJUNTO CORRIMAO P1150 USI</t>
+  </si>
+  <si>
+    <t>SUPORTE PISO BPF</t>
+  </si>
+  <si>
+    <t>BASE PISO BPF</t>
+  </si>
+  <si>
+    <t>HASTE LATERAL 1200</t>
+  </si>
+  <si>
+    <t>HASTE SUPERIOR 1700</t>
+  </si>
+  <si>
+    <t>BUCHA DISTANCIADORA RQ30</t>
+  </si>
+  <si>
+    <t>FIXADOR BASE GUIA CENTRAL</t>
+  </si>
+  <si>
+    <t>GUIA CENTRAL DOBRA 2</t>
+  </si>
+  <si>
+    <t>BASE SUPORTE GUIA CENTRAL</t>
+  </si>
+  <si>
+    <t>HASTE GUIA CENTRAL</t>
+  </si>
+  <si>
+    <t>EIXO CILINDRO CENTRAL</t>
+  </si>
+  <si>
+    <t>MANCAL GUIA LATERAL</t>
+  </si>
+  <si>
+    <t>TUBO CILINDRO LATERAL</t>
+  </si>
+  <si>
+    <t>TUBO CIL CENTRAL</t>
+  </si>
+  <si>
+    <t>BASE BRACO NYLON</t>
+  </si>
+  <si>
+    <t>SUPORTE BRACO NYLON</t>
+  </si>
+  <si>
+    <t>RODA BRACO NYLON</t>
+  </si>
+  <si>
+    <t>EIXO RODA GUIA</t>
+  </si>
+  <si>
+    <t>CONJUNTO PORTA GRAO V2</t>
+  </si>
+  <si>
+    <t>PARAFUSO REGULAGEN GUIA DOBRA</t>
+  </si>
+  <si>
+    <t>PORCA REGULAGEM CILINDRO DOBRA</t>
+  </si>
+  <si>
+    <t>CONJUNTO BOTAO PULSO SIMPLES</t>
   </si>
 </sst>
 </file>
@@ -474,16 +468,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4247F9-C958-459D-B77C-585153FC93C6}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,388 +489,285 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>20972</v>
+        <v>21402</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>17229</v>
+        <v>21556</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>21547</v>
+        <v>21557</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>21548</v>
+        <v>21564</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>21551</v>
+        <v>21566</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>21554</v>
+        <v>21569</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>21570</v>
+        <v>21576</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>21571</v>
+        <v>21577</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>21573</v>
+        <v>21597</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>21595</v>
+        <v>21598</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21596</v>
+        <v>21599</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>21603</v>
+        <v>21600</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>21607</v>
+        <v>21601</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>21612</v>
+        <v>21602</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>21613</v>
+        <v>21604</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21622</v>
+        <v>21611</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21626</v>
+        <v>21615</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21627</v>
+        <v>21618</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>21628</v>
+        <v>21619</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21629</v>
+        <v>21620</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21630</v>
+        <v>21621</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21631</v>
+        <v>21625</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21635</v>
+        <v>21633</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21636</v>
+        <v>21634</v>
       </c>
       <c r="B25" t="s">
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>21638</v>
+        <v>21700</v>
       </c>
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>21640</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>76597</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -889,7 +780,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\PycharmProjects\robo_boby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087CF703-1EA8-42DF-BAD2-BF83852F1A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2EB4D7-5B9B-4673-98AE-C759190D7982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
+    <workbookView xWindow="3840" yWindow="2805" windowWidth="23295" windowHeight="12675" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
   <si>
     <t>Código</t>
   </si>
@@ -40,82 +40,142 @@
     <t>UNID</t>
   </si>
   <si>
-    <t>CONJUNTO IMPRESSORA FLEXO 500</t>
-  </si>
-  <si>
     <t>UN</t>
   </si>
   <si>
-    <t>SUPORTE MANCAL DOBRA BPF</t>
-  </si>
-  <si>
-    <t>SUPORTE MEIO CILINDRO DOBRA</t>
-  </si>
-  <si>
-    <t>CONJUNTO CORRIMAO P1150 USI</t>
-  </si>
-  <si>
-    <t>SUPORTE PISO BPF</t>
-  </si>
-  <si>
-    <t>BASE PISO BPF</t>
-  </si>
-  <si>
-    <t>HASTE LATERAL 1200</t>
-  </si>
-  <si>
-    <t>HASTE SUPERIOR 1700</t>
-  </si>
-  <si>
-    <t>BUCHA DISTANCIADORA RQ30</t>
-  </si>
-  <si>
-    <t>FIXADOR BASE GUIA CENTRAL</t>
-  </si>
-  <si>
-    <t>GUIA CENTRAL DOBRA 2</t>
-  </si>
-  <si>
-    <t>BASE SUPORTE GUIA CENTRAL</t>
-  </si>
-  <si>
-    <t>HASTE GUIA CENTRAL</t>
-  </si>
-  <si>
-    <t>EIXO CILINDRO CENTRAL</t>
-  </si>
-  <si>
-    <t>MANCAL GUIA LATERAL</t>
-  </si>
-  <si>
-    <t>TUBO CILINDRO LATERAL</t>
-  </si>
-  <si>
-    <t>TUBO CIL CENTRAL</t>
-  </si>
-  <si>
-    <t>BASE BRACO NYLON</t>
-  </si>
-  <si>
-    <t>SUPORTE BRACO NYLON</t>
-  </si>
-  <si>
-    <t>RODA BRACO NYLON</t>
-  </si>
-  <si>
-    <t>EIXO RODA GUIA</t>
-  </si>
-  <si>
-    <t>CONJUNTO PORTA GRAO V2</t>
-  </si>
-  <si>
-    <t>PARAFUSO REGULAGEN GUIA DOBRA</t>
-  </si>
-  <si>
-    <t>PORCA REGULAGEM CILINDRO DOBRA</t>
-  </si>
-  <si>
-    <t>CONJUNTO BOTAO PULSO SIMPLES</t>
+    <t>CONJUNTO ANEL CALIBRADOR 56</t>
+  </si>
+  <si>
+    <t>CHAVETA EIXO PENDULO</t>
+  </si>
+  <si>
+    <t>CONJUNTO GUIA REGULADOR DOBRA</t>
+  </si>
+  <si>
+    <t>VIGA APOIO LATERAL</t>
+  </si>
+  <si>
+    <t>CONJUNTO DOBRA 2 REGULAVEL</t>
+  </si>
+  <si>
+    <t>SUPORTE MANCAL FL206</t>
+  </si>
+  <si>
+    <t>CONJUNTO SUPORTE ENCODER</t>
+  </si>
+  <si>
+    <t>BASE REUTOR PUXADOR BPF</t>
+  </si>
+  <si>
+    <t>BASE PORTA GAVETA MAIOR USI</t>
+  </si>
+  <si>
+    <t>SUPORTE MOVI GAVETA USI</t>
+  </si>
+  <si>
+    <t>CONJUNTO BANDEJA TINTA 1500</t>
+  </si>
+  <si>
+    <t>BRACO MOV PENDULO</t>
+  </si>
+  <si>
+    <t>BASE FIXACAO EXTRUSORA</t>
+  </si>
+  <si>
+    <t>TAMPA FIXACAO EXTRUSORA</t>
+  </si>
+  <si>
+    <t>SUPORTE FACA DIREITO</t>
+  </si>
+  <si>
+    <t>SUPORTE FACA ESQUERDO</t>
+  </si>
+  <si>
+    <t>HASTE ROSCADA REGULAGEM</t>
+  </si>
+  <si>
+    <t>MANOPLA HASTE ROSCADA</t>
+  </si>
+  <si>
+    <t>BASE REGULAGEM FACA</t>
+  </si>
+  <si>
+    <t>CONJUNTO PAINEL ELEVADOR</t>
+  </si>
+  <si>
+    <t>CONJUNTO MESA REGULAVEL FLEXO</t>
+  </si>
+  <si>
+    <t>SUPORTE MOLA FIXADOR</t>
+  </si>
+  <si>
+    <t>IMPRESSORA FLEXO 200</t>
+  </si>
+  <si>
+    <t>BASE VERTICAL DOBRA</t>
+  </si>
+  <si>
+    <t>REFORCO LATERAL DOBRA</t>
+  </si>
+  <si>
+    <t>HASTE FIXACAO CORPO BPF</t>
+  </si>
+  <si>
+    <t>CONJUNTO GUIA LATERAL BPF</t>
+  </si>
+  <si>
+    <t>CONJUNTO CIL CENTRAL BPF</t>
+  </si>
+  <si>
+    <t>CORPO BASE BRACO DOBRA</t>
+  </si>
+  <si>
+    <t>SUPORTE PATINS BRACO</t>
+  </si>
+  <si>
+    <t>CONJUNTO CABINE PORTA FILTRO</t>
+  </si>
+  <si>
+    <t>HASTE POLIA CILINDRO MOVEL</t>
+  </si>
+  <si>
+    <t>BASE APOIO PATIM FACA</t>
+  </si>
+  <si>
+    <t>BASE PATIM FACA</t>
+  </si>
+  <si>
+    <t>SUPORTE CILINDRO GUIA FACA</t>
+  </si>
+  <si>
+    <t>SUPORTE ENCORDE</t>
+  </si>
+  <si>
+    <t>CONJUNTO GUIA 35X800</t>
+  </si>
+  <si>
+    <t>CONJUNTO GUIA 35X700</t>
+  </si>
+  <si>
+    <t>EIXO APOIO DESBOBINADOR</t>
+  </si>
+  <si>
+    <t>BRACO APOIO DESBOBINADOR</t>
+  </si>
+  <si>
+    <t>FIXADOR APOIO DESBOBINADOR</t>
+  </si>
+  <si>
+    <t>BUCHA EIXO DESBOBINADOR</t>
+  </si>
+  <si>
+    <t>EIXO BRACO ELEVADOR 650</t>
+  </si>
+  <si>
+    <t>CILINDRO DESBOBINADOR MAIOR</t>
+  </si>
+  <si>
+    <t>CONJUNTO CIL MOT 120X110</t>
   </si>
 </sst>
 </file>
@@ -151,9 +211,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4247F9-C958-459D-B77C-585153FC93C6}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,278 +555,542 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>21402</v>
+      <c r="A2">
+        <v>18061</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>20813</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>21556</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>21227</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21262</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21488</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>21557</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>21488</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>21522</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>21564</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>21566</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>21569</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>21576</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>21577</v>
+      <c r="A9">
+        <v>21558</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>21597</v>
+      <c r="A10">
+        <v>21559</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>21598</v>
+        <v>21567</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21599</v>
+        <v>21585</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>21600</v>
+        <v>21585</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>21601</v>
+        <v>21594</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>21602</v>
+        <v>21594</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>21604</v>
+        <v>21610</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21611</v>
+        <v>21614</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21615</v>
+        <v>21616</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21618</v>
+        <v>21617</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>21619</v>
+        <v>21623</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21620</v>
+        <v>21632</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21621</v>
+        <v>21653</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21625</v>
+        <v>21653</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21633</v>
+        <v>21660</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21634</v>
+        <v>21665</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>21700</v>
+        <v>21667</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>21669</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>21674</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>21676</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>21680</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>21687</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>21688</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>21695</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>21696</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>21702</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>21708</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>21709</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>21710</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>21712</v>
+      </c>
+      <c r="B39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>21713</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>21716</v>
+      </c>
+      <c r="B41" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>21717</v>
+      </c>
+      <c r="B42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>21720</v>
+      </c>
+      <c r="B43" t="s">
+        <v>21</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>21721</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>21731</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>21735</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>21742</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>21745</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>21758</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>21762</v>
+      </c>
+      <c r="B50" t="s">
+        <v>26</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -780,7 +1103,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\PycharmProjects\robo_boby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2EB4D7-5B9B-4673-98AE-C759190D7982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE0D8AC-72D9-4E2D-8B16-DF3C8F2FA00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2805" windowWidth="23295" windowHeight="12675" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
+    <workbookView xWindow="5505" yWindow="2805" windowWidth="23295" windowHeight="12675" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
   <si>
     <t>Código</t>
   </si>
@@ -43,139 +43,112 @@
     <t>UN</t>
   </si>
   <si>
-    <t>CONJUNTO ANEL CALIBRADOR 56</t>
-  </si>
-  <si>
-    <t>CHAVETA EIXO PENDULO</t>
-  </si>
-  <si>
-    <t>CONJUNTO GUIA REGULADOR DOBRA</t>
-  </si>
-  <si>
-    <t>VIGA APOIO LATERAL</t>
-  </si>
-  <si>
     <t>CONJUNTO DOBRA 2 REGULAVEL</t>
   </si>
   <si>
-    <t>SUPORTE MANCAL FL206</t>
-  </si>
-  <si>
-    <t>CONJUNTO SUPORTE ENCODER</t>
-  </si>
-  <si>
-    <t>BASE REUTOR PUXADOR BPF</t>
-  </si>
-  <si>
-    <t>BASE PORTA GAVETA MAIOR USI</t>
-  </si>
-  <si>
-    <t>SUPORTE MOVI GAVETA USI</t>
-  </si>
-  <si>
-    <t>CONJUNTO BANDEJA TINTA 1500</t>
-  </si>
-  <si>
-    <t>BRACO MOV PENDULO</t>
-  </si>
-  <si>
-    <t>BASE FIXACAO EXTRUSORA</t>
-  </si>
-  <si>
-    <t>TAMPA FIXACAO EXTRUSORA</t>
-  </si>
-  <si>
-    <t>SUPORTE FACA DIREITO</t>
-  </si>
-  <si>
-    <t>SUPORTE FACA ESQUERDO</t>
-  </si>
-  <si>
-    <t>HASTE ROSCADA REGULAGEM</t>
-  </si>
-  <si>
-    <t>MANOPLA HASTE ROSCADA</t>
-  </si>
-  <si>
-    <t>BASE REGULAGEM FACA</t>
-  </si>
-  <si>
-    <t>CONJUNTO PAINEL ELEVADOR</t>
-  </si>
-  <si>
-    <t>CONJUNTO MESA REGULAVEL FLEXO</t>
-  </si>
-  <si>
-    <t>SUPORTE MOLA FIXADOR</t>
-  </si>
-  <si>
-    <t>IMPRESSORA FLEXO 200</t>
-  </si>
-  <si>
-    <t>BASE VERTICAL DOBRA</t>
-  </si>
-  <si>
-    <t>REFORCO LATERAL DOBRA</t>
-  </si>
-  <si>
-    <t>HASTE FIXACAO CORPO BPF</t>
-  </si>
-  <si>
-    <t>CONJUNTO GUIA LATERAL BPF</t>
-  </si>
-  <si>
-    <t>CONJUNTO CIL CENTRAL BPF</t>
-  </si>
-  <si>
-    <t>CORPO BASE BRACO DOBRA</t>
-  </si>
-  <si>
-    <t>SUPORTE PATINS BRACO</t>
-  </si>
-  <si>
-    <t>CONJUNTO CABINE PORTA FILTRO</t>
-  </si>
-  <si>
-    <t>HASTE POLIA CILINDRO MOVEL</t>
-  </si>
-  <si>
-    <t>BASE APOIO PATIM FACA</t>
-  </si>
-  <si>
-    <t>BASE PATIM FACA</t>
-  </si>
-  <si>
-    <t>SUPORTE CILINDRO GUIA FACA</t>
-  </si>
-  <si>
-    <t>SUPORTE ENCORDE</t>
-  </si>
-  <si>
-    <t>CONJUNTO GUIA 35X800</t>
-  </si>
-  <si>
-    <t>CONJUNTO GUIA 35X700</t>
-  </si>
-  <si>
-    <t>EIXO APOIO DESBOBINADOR</t>
-  </si>
-  <si>
-    <t>BRACO APOIO DESBOBINADOR</t>
-  </si>
-  <si>
-    <t>FIXADOR APOIO DESBOBINADOR</t>
-  </si>
-  <si>
-    <t>BUCHA EIXO DESBOBINADOR</t>
-  </si>
-  <si>
-    <t>EIXO BRACO ELEVADOR 650</t>
-  </si>
-  <si>
-    <t>CILINDRO DESBOBINADOR MAIOR</t>
-  </si>
-  <si>
-    <t>CONJUNTO CIL MOT 120X110</t>
+    <t>CONJUNTO REGULADOR ALTURA PU</t>
+  </si>
+  <si>
+    <t>CONJUNTO GUIA DESB FLEXO 4C</t>
+  </si>
+  <si>
+    <t>CONJUNTO COMANDO BPF V2</t>
+  </si>
+  <si>
+    <t>CILINDRO DESBOBINADOR POLIROLL</t>
+  </si>
+  <si>
+    <t>SUPORTE RED TRACIONADOR</t>
+  </si>
+  <si>
+    <t>CONJUNTO CORPO LATERAL</t>
+  </si>
+  <si>
+    <t>EIXO TRACAO FIXO RQ50</t>
+  </si>
+  <si>
+    <t>PLATAFORNA EXAUSTOR</t>
+  </si>
+  <si>
+    <t>SUPORTE MOVIMENTO GUIA DOBRA</t>
+  </si>
+  <si>
+    <t>CONJUNTO CORRIMAO P1700</t>
+  </si>
+  <si>
+    <t>CONJUNTO CORRIMAO P1150</t>
+  </si>
+  <si>
+    <t>CONJUNTO BASE REGULAVEL</t>
+  </si>
+  <si>
+    <t>CONJUNTO GUIA FACA</t>
+  </si>
+  <si>
+    <t>CONJUNTO GUIA BORRACHA BPF</t>
+  </si>
+  <si>
+    <t>CONJUNTO TRACIONADOR PUXADOR</t>
+  </si>
+  <si>
+    <t>CONJUNTO BALANCA</t>
+  </si>
+  <si>
+    <t>ENGRENAGEM REG CILINDRO APOIO</t>
+  </si>
+  <si>
+    <t>DISTANCIADOR BASE FACA</t>
+  </si>
+  <si>
+    <t>CONJUNTO GUIA 30X300</t>
+  </si>
+  <si>
+    <t>CONJUNTO TRILHO GUIA 30X450</t>
+  </si>
+  <si>
+    <t>LATERAL FIXACAO EXTRUSORA</t>
+  </si>
+  <si>
+    <t>SUPORTE REGULAGEM FACA</t>
+  </si>
+  <si>
+    <t>TAMPA FIXACAO FACA</t>
+  </si>
+  <si>
+    <t>HASTE GUIA SUPORTE FACA</t>
+  </si>
+  <si>
+    <t>HASTE GUIA REFILA</t>
+  </si>
+  <si>
+    <t>CONJUNTO ELEVADOR BOBINA 650</t>
+  </si>
+  <si>
+    <t>CONJUNTO EIXO DESB 650</t>
+  </si>
+  <si>
+    <t>CONJUNTO CORPO DESB 650 PRE</t>
+  </si>
+  <si>
+    <t>EIXO CIL ALUMINIO DESB. 2</t>
+  </si>
+  <si>
+    <t>EIXO BRACO CONTRAPESO</t>
+  </si>
+  <si>
+    <t>CONJUNTO ROLDANA GUIA</t>
+  </si>
+  <si>
+    <t>BUCHA CORPO</t>
+  </si>
+  <si>
+    <t>CILINDRO BORRACHA MAQ PICOTE</t>
+  </si>
+  <si>
+    <t>CILINDRO APOIO BOBINADOR</t>
+  </si>
+  <si>
+    <t>RODA TRACAO DG</t>
   </si>
 </sst>
 </file>
@@ -527,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4247F9-C958-459D-B77C-585153FC93C6}">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,10 +529,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>18061</v>
+        <v>21759</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -567,10 +540,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>20813</v>
+        <v>21769</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -578,10 +551,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>21227</v>
+        <v>21817</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -589,10 +562,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>21262</v>
+        <v>21821</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -600,10 +573,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>21488</v>
+        <v>20878</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -611,10 +584,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>21488</v>
+        <v>21516</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -622,10 +595,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21522</v>
+        <v>21549</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
@@ -633,10 +606,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>21558</v>
+        <v>21552</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -644,10 +617,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>21559</v>
+        <v>21555</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -655,10 +628,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>21567</v>
+        <v>21561</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
@@ -666,10 +639,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21585</v>
+        <v>21563</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -677,10 +650,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>21585</v>
+        <v>21593</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
@@ -688,10 +661,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>21594</v>
+        <v>21637</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
@@ -699,10 +672,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>21594</v>
+        <v>21655</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -710,10 +683,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>21610</v>
+        <v>21657</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -721,10 +694,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21614</v>
+        <v>21658</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -732,10 +705,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21616</v>
+        <v>21659</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -743,10 +716,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21617</v>
+        <v>21678</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -754,10 +727,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>21623</v>
+        <v>21686</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -765,10 +738,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>21632</v>
+        <v>21689</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -776,10 +749,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21653</v>
+        <v>21690</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
@@ -787,10 +760,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>21653</v>
+        <v>21714</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>4</v>
@@ -798,10 +771,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>21660</v>
+        <v>21715</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C24" t="s">
         <v>4</v>
@@ -809,10 +782,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>21665</v>
+        <v>21718</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -820,10 +793,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>21667</v>
+        <v>21719</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -831,10 +804,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>21669</v>
+        <v>21722</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
         <v>4</v>
@@ -842,10 +815,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>21674</v>
+        <v>21726</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -853,10 +826,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>21676</v>
+        <v>21729</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -864,10 +837,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>21680</v>
+        <v>21739</v>
       </c>
       <c r="B30" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -875,10 +848,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>21687</v>
+        <v>21743</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -886,10 +859,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>21688</v>
+        <v>21744</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -897,10 +870,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>21695</v>
+        <v>21754</v>
       </c>
       <c r="B33" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -908,10 +881,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>21696</v>
+        <v>21756</v>
       </c>
       <c r="B34" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -919,10 +892,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>21702</v>
+        <v>12712</v>
       </c>
       <c r="B35" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
         <v>4</v>
@@ -930,10 +903,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>21708</v>
+        <v>21819</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -941,155 +914,12 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>21709</v>
+        <v>21820</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>21710</v>
-      </c>
-      <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>21712</v>
-      </c>
-      <c r="B39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>21713</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>21716</v>
-      </c>
-      <c r="B41" t="s">
-        <v>19</v>
-      </c>
-      <c r="C41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>21717</v>
-      </c>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>21720</v>
-      </c>
-      <c r="B43" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>21721</v>
-      </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>21731</v>
-      </c>
-      <c r="B45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>21735</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>21742</v>
-      </c>
-      <c r="B47" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>21745</v>
-      </c>
-      <c r="B48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>21758</v>
-      </c>
-      <c r="B49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>21762</v>
-      </c>
-      <c r="B50" t="s">
-        <v>26</v>
-      </c>
-      <c r="C50" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1103,7 +933,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\PycharmProjects\robo_boby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE0D8AC-72D9-4E2D-8B16-DF3C8F2FA00A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0B34E2-6FA4-4B2B-9135-626A113C8393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5505" yWindow="2805" windowWidth="23295" windowHeight="12675" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
   <si>
     <t>Código</t>
   </si>
@@ -43,112 +43,40 @@
     <t>UN</t>
   </si>
   <si>
-    <t>CONJUNTO DOBRA 2 REGULAVEL</t>
-  </si>
-  <si>
-    <t>CONJUNTO REGULADOR ALTURA PU</t>
-  </si>
-  <si>
-    <t>CONJUNTO GUIA DESB FLEXO 4C</t>
-  </si>
-  <si>
-    <t>CONJUNTO COMANDO BPF V2</t>
-  </si>
-  <si>
-    <t>CILINDRO DESBOBINADOR POLIROLL</t>
-  </si>
-  <si>
-    <t>SUPORTE RED TRACIONADOR</t>
-  </si>
-  <si>
-    <t>CONJUNTO CORPO LATERAL</t>
-  </si>
-  <si>
-    <t>EIXO TRACAO FIXO RQ50</t>
-  </si>
-  <si>
-    <t>PLATAFORNA EXAUSTOR</t>
-  </si>
-  <si>
-    <t>SUPORTE MOVIMENTO GUIA DOBRA</t>
-  </si>
-  <si>
-    <t>CONJUNTO CORRIMAO P1700</t>
-  </si>
-  <si>
-    <t>CONJUNTO CORRIMAO P1150</t>
-  </si>
-  <si>
-    <t>CONJUNTO BASE REGULAVEL</t>
-  </si>
-  <si>
-    <t>CONJUNTO GUIA FACA</t>
-  </si>
-  <si>
-    <t>CONJUNTO GUIA BORRACHA BPF</t>
-  </si>
-  <si>
-    <t>CONJUNTO TRACIONADOR PUXADOR</t>
-  </si>
-  <si>
-    <t>CONJUNTO BALANCA</t>
-  </si>
-  <si>
-    <t>ENGRENAGEM REG CILINDRO APOIO</t>
-  </si>
-  <si>
-    <t>DISTANCIADOR BASE FACA</t>
-  </si>
-  <si>
-    <t>CONJUNTO GUIA 30X300</t>
-  </si>
-  <si>
-    <t>CONJUNTO TRILHO GUIA 30X450</t>
-  </si>
-  <si>
-    <t>LATERAL FIXACAO EXTRUSORA</t>
-  </si>
-  <si>
-    <t>SUPORTE REGULAGEM FACA</t>
-  </si>
-  <si>
-    <t>TAMPA FIXACAO FACA</t>
-  </si>
-  <si>
-    <t>HASTE GUIA SUPORTE FACA</t>
-  </si>
-  <si>
-    <t>HASTE GUIA REFILA</t>
-  </si>
-  <si>
-    <t>CONJUNTO ELEVADOR BOBINA 650</t>
-  </si>
-  <si>
-    <t>CONJUNTO EIXO DESB 650</t>
-  </si>
-  <si>
-    <t>CONJUNTO CORPO DESB 650 PRE</t>
-  </si>
-  <si>
-    <t>EIXO CIL ALUMINIO DESB. 2</t>
-  </si>
-  <si>
-    <t>EIXO BRACO CONTRAPESO</t>
-  </si>
-  <si>
-    <t>CONJUNTO ROLDANA GUIA</t>
-  </si>
-  <si>
-    <t>BUCHA CORPO</t>
-  </si>
-  <si>
-    <t>CILINDRO BORRACHA MAQ PICOTE</t>
-  </si>
-  <si>
-    <t>CILINDRO APOIO BOBINADOR</t>
-  </si>
-  <si>
-    <t>RODA TRACAO DG</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>SUCATA FERRO</t>
+  </si>
+  <si>
+    <t>EIXO CILINDRO BALANCA FMC75</t>
+  </si>
+  <si>
+    <t>TUBO CILINDRO BALANCA FMC 75</t>
+  </si>
+  <si>
+    <t>PONTERIA EIXO SUPERIOR FMC</t>
+  </si>
+  <si>
+    <t>CAPA BORRACHA APERTO FIXO</t>
+  </si>
+  <si>
+    <t>BASE REGULADORA NIVEL</t>
+  </si>
+  <si>
+    <t>EIXO JUNCAO CILINDRO BORRACHA</t>
+  </si>
+  <si>
+    <t>CONJUNTO CIL BORRACHA USINADO</t>
+  </si>
+  <si>
+    <t>CONJUNTO MOVIMENTO PENDULO</t>
+  </si>
+  <si>
+    <t>CONJUNTO PORTA CLICHE D840</t>
+  </si>
+  <si>
+    <t>CONJUNTO BRACO FREIO 650</t>
   </si>
 </sst>
 </file>
@@ -500,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4247F9-C958-459D-B77C-585153FC93C6}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,7 +457,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>21759</v>
+        <v>68317</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -540,7 +468,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>21769</v>
+        <v>21825</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -551,7 +479,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>21817</v>
+        <v>21826</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -562,7 +490,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>21821</v>
+        <v>21848</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -573,7 +501,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>20878</v>
+        <v>21849</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -584,7 +512,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>21516</v>
+        <v>16426</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -595,7 +523,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>21549</v>
+        <v>19917</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -606,7 +534,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>21552</v>
+        <v>20349</v>
       </c>
       <c r="B9" t="s">
         <v>13</v>
@@ -617,7 +545,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>21555</v>
+        <v>21394</v>
       </c>
       <c r="B10" t="s">
         <v>14</v>
@@ -628,7 +556,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>21561</v>
+        <v>21691</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
@@ -639,287 +567,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>21563</v>
+        <v>21727</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>21593</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>21637</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>21655</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>21657</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>21658</v>
-      </c>
-      <c r="B17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>21659</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>21678</v>
-      </c>
-      <c r="B19" t="s">
-        <v>22</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>21686</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>21689</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21690</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>21714</v>
-      </c>
-      <c r="B23" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>21715</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>21718</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>21719</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>21722</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>21726</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>21729</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>21739</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>21743</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>21744</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>21754</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>21756</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>12712</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>21819</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>21820</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
         <v>4</v>
       </c>
     </row>
@@ -930,14 +583,183 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FCEDF8-12C5-48D7-8C34-825F1F7DC766}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>68317</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>21825</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>21826</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>21848</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>21849</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>16426</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>19917</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>20349</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>21394</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>21691</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>21727</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\PycharmProjects\robo_boby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0B34E2-6FA4-4B2B-9135-626A113C8393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006D5249-F2A9-4FFF-BF41-A1D287905A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
   <si>
     <t>Código</t>
   </si>
@@ -43,40 +43,118 @@
     <t>UN</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>SUCATA FERRO</t>
-  </si>
-  <si>
-    <t>EIXO CILINDRO BALANCA FMC75</t>
-  </si>
-  <si>
-    <t>TUBO CILINDRO BALANCA FMC 75</t>
-  </si>
-  <si>
-    <t>PONTERIA EIXO SUPERIOR FMC</t>
-  </si>
-  <si>
-    <t>CAPA BORRACHA APERTO FIXO</t>
-  </si>
-  <si>
-    <t>BASE REGULADORA NIVEL</t>
-  </si>
-  <si>
-    <t>EIXO JUNCAO CILINDRO BORRACHA</t>
-  </si>
-  <si>
-    <t>CONJUNTO CIL BORRACHA USINADO</t>
-  </si>
-  <si>
-    <t>CONJUNTO MOVIMENTO PENDULO</t>
-  </si>
-  <si>
-    <t>CONJUNTO PORTA CLICHE D840</t>
-  </si>
-  <si>
-    <t>CONJUNTO BRACO FREIO 650</t>
+    <t>BRACO APOIO BOBINA SUP</t>
+  </si>
+  <si>
+    <t>SUPORTE CENTRAL SOLDA</t>
+  </si>
+  <si>
+    <t>HASTE VERTICAL SOLDA</t>
+  </si>
+  <si>
+    <t>CONJUNTO BASE SOLDA 1500</t>
+  </si>
+  <si>
+    <t>FLANGE FIX CP96D50</t>
+  </si>
+  <si>
+    <t>REFORCO CORPO</t>
+  </si>
+  <si>
+    <t>BRACO APOIO BOBIA INF</t>
+  </si>
+  <si>
+    <t>CILINDRO ALUMINIO D32850</t>
+  </si>
+  <si>
+    <t>BASE CILINDRO GUIA INF</t>
+  </si>
+  <si>
+    <t>PONTEIRA FLANGE D50</t>
+  </si>
+  <si>
+    <t>CILINDRO GUIA D32X850</t>
+  </si>
+  <si>
+    <t>SUPORTE GUIA PLASTICO</t>
+  </si>
+  <si>
+    <t>CONJUNTO PAINEL TEMP MICRO</t>
+  </si>
+  <si>
+    <t>PONTA EIXO TRACAO FMC V2</t>
+  </si>
+  <si>
+    <t>PONTA EIXO MENOR FMC V2</t>
+  </si>
+  <si>
+    <t>BUCHA ISOLANTE MOLA</t>
+  </si>
+  <si>
+    <t>BUCHA GUIA SOLDA CHATA</t>
+  </si>
+  <si>
+    <t>SEPARADOR BUCHA SOLDA</t>
+  </si>
+  <si>
+    <t>AFASTADOR ISOLANTE</t>
+  </si>
+  <si>
+    <t>PORCA ESTICADOR</t>
+  </si>
+  <si>
+    <t>APOIO ESTICADORES</t>
+  </si>
+  <si>
+    <t>BASE FIXACAO REDUTOR</t>
+  </si>
+  <si>
+    <t>CONJUNTO GUIA 30-2000</t>
+  </si>
+  <si>
+    <t>EIXO TRACAO ROLO MT</t>
+  </si>
+  <si>
+    <t>EIXO FIXADOR REDUTOR TR</t>
+  </si>
+  <si>
+    <t>BUCHA FIX PINHAO CILINDRO</t>
+  </si>
+  <si>
+    <t>PINHAO DUPLO EIXO 19 USI</t>
+  </si>
+  <si>
+    <t>GUIA HASTE PANTOGRAFICA</t>
+  </si>
+  <si>
+    <t>GUIA CENTRAL PANTOGRAFICA</t>
+  </si>
+  <si>
+    <t>ARRUELA GUIA CENTRAL</t>
+  </si>
+  <si>
+    <t>SUPORTE ROLAMENTO GUIA</t>
+  </si>
+  <si>
+    <t>SUPORTE ROLAMENTO PANTO</t>
+  </si>
+  <si>
+    <t>BASE FIXACAO CP96</t>
+  </si>
+  <si>
+    <t>TAMPA SUPORTE MESA PANTO</t>
+  </si>
+  <si>
+    <t>HASTE CENTRAL GUIA PANTO</t>
+  </si>
+  <si>
+    <t>GUIA JUNTA ESFERICA</t>
+  </si>
+  <si>
+    <t>CONJUNTO ANILOX LAR 1500</t>
+  </si>
+  <si>
+    <t>CORPO CILINDRO 42 USINAGEM</t>
   </si>
 </sst>
 </file>
@@ -112,8 +190,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4247F9-C958-459D-B77C-585153FC93C6}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,123 +535,420 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>68317</v>
+      <c r="A2" s="1">
+        <v>21789</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>21791</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>21825</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>21793</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>21826</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>21794</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>21848</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>21795</v>
+      </c>
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>21849</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>21797</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>16426</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>21798</v>
+      </c>
+      <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>19917</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>21802</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>20349</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>21804</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>21394</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>21811</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>21691</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>21812</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>21727</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>21814</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>21823</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>21846</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>21847</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>21852</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>21853</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>21854</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>21855</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>21856</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21858</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21865</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21872</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>21887</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>21891</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>21901</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>21902</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>21910</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>21913</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>21914</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>21915</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>21918</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>21920</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>21922</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>21923</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>21924</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>21525</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>19539</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
         <v>4</v>
       </c>
     </row>
@@ -583,181 +959,127 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FCEDF8-12C5-48D7-8C34-825F1F7DC766}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A2:A39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>68317</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>21825</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>21826</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>21848</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>21849</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>16426</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>19917</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>20349</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>21394</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>21691</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>21727</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/Pasta1.xlsx
+++ b/Pasta1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anderson\PycharmProjects\robo_boby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006D5249-F2A9-4FFF-BF41-A1D287905A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78734E54-BD3E-444F-AAD8-B623AF847740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
+    <workbookView xWindow="1140" yWindow="870" windowWidth="13155" windowHeight="14610" xr2:uid="{77A32AD5-2C02-4106-9F0C-87CAB8A47BDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="28">
   <si>
     <t>Código</t>
   </si>
@@ -40,121 +40,76 @@
     <t>UNID</t>
   </si>
   <si>
-    <t>UN</t>
-  </si>
-  <si>
-    <t>BRACO APOIO BOBINA SUP</t>
-  </si>
-  <si>
-    <t>SUPORTE CENTRAL SOLDA</t>
-  </si>
-  <si>
-    <t>HASTE VERTICAL SOLDA</t>
-  </si>
-  <si>
-    <t>CONJUNTO BASE SOLDA 1500</t>
-  </si>
-  <si>
-    <t>FLANGE FIX CP96D50</t>
-  </si>
-  <si>
-    <t>REFORCO CORPO</t>
-  </si>
-  <si>
-    <t>BRACO APOIO BOBIA INF</t>
-  </si>
-  <si>
-    <t>CILINDRO ALUMINIO D32850</t>
-  </si>
-  <si>
-    <t>BASE CILINDRO GUIA INF</t>
-  </si>
-  <si>
-    <t>PONTEIRA FLANGE D50</t>
-  </si>
-  <si>
-    <t>CILINDRO GUIA D32X850</t>
-  </si>
-  <si>
-    <t>SUPORTE GUIA PLASTICO</t>
-  </si>
-  <si>
-    <t>CONJUNTO PAINEL TEMP MICRO</t>
-  </si>
-  <si>
-    <t>PONTA EIXO TRACAO FMC V2</t>
-  </si>
-  <si>
-    <t>PONTA EIXO MENOR FMC V2</t>
-  </si>
-  <si>
-    <t>BUCHA ISOLANTE MOLA</t>
-  </si>
-  <si>
-    <t>BUCHA GUIA SOLDA CHATA</t>
-  </si>
-  <si>
-    <t>SEPARADOR BUCHA SOLDA</t>
-  </si>
-  <si>
-    <t>AFASTADOR ISOLANTE</t>
-  </si>
-  <si>
-    <t>PORCA ESTICADOR</t>
-  </si>
-  <si>
-    <t>APOIO ESTICADORES</t>
-  </si>
-  <si>
-    <t>BASE FIXACAO REDUTOR</t>
-  </si>
-  <si>
-    <t>CONJUNTO GUIA 30-2000</t>
-  </si>
-  <si>
-    <t>EIXO TRACAO ROLO MT</t>
-  </si>
-  <si>
-    <t>EIXO FIXADOR REDUTOR TR</t>
-  </si>
-  <si>
-    <t>BUCHA FIX PINHAO CILINDRO</t>
-  </si>
-  <si>
-    <t>PINHAO DUPLO EIXO 19 USI</t>
-  </si>
-  <si>
-    <t>GUIA HASTE PANTOGRAFICA</t>
-  </si>
-  <si>
-    <t>GUIA CENTRAL PANTOGRAFICA</t>
-  </si>
-  <si>
-    <t>ARRUELA GUIA CENTRAL</t>
-  </si>
-  <si>
-    <t>SUPORTE ROLAMENTO GUIA</t>
-  </si>
-  <si>
-    <t>SUPORTE ROLAMENTO PANTO</t>
-  </si>
-  <si>
-    <t>BASE FIXACAO CP96</t>
-  </si>
-  <si>
-    <t>TAMPA SUPORTE MESA PANTO</t>
-  </si>
-  <si>
-    <t>HASTE CENTRAL GUIA PANTO</t>
-  </si>
-  <si>
-    <t>GUIA JUNTA ESFERICA</t>
-  </si>
-  <si>
-    <t>CONJUNTO ANILOX LAR 1500</t>
-  </si>
-  <si>
-    <t>CORPO CILINDRO 42 USINAGEM</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>CONJUNTO SUP SELADORA 1500</t>
+  </si>
+  <si>
+    <t>SUPORTE APOIO BASE BOBINA</t>
+  </si>
+  <si>
+    <t>APOIO CILINDRO GUIA INF</t>
+  </si>
+  <si>
+    <t>CONJUNTO CLINDRO ROLO TR 800</t>
+  </si>
+  <si>
+    <t>CONJUNTO EST CORPO 1000 USI</t>
+  </si>
+  <si>
+    <t>CONJUNTO MESA PANTOGRAFICA 200</t>
+  </si>
+  <si>
+    <t>MANCAL GUIA GIRATORIA</t>
+  </si>
+  <si>
+    <t>FLANGE SUPERIOR GUIA GIRATORIA</t>
+  </si>
+  <si>
+    <t>PASTILHA GUIA GIRATORIA</t>
+  </si>
+  <si>
+    <t>CONJUNTO REGULADOR SOLDA UNF</t>
+  </si>
+  <si>
+    <t>HASTE PE EC1000</t>
+  </si>
+  <si>
+    <t>CONJUNTO PONTO BOB RETO D87X45</t>
+  </si>
+  <si>
+    <t>SUPORTE ESTEIRA SAIDA</t>
+  </si>
+  <si>
+    <t>HASTE ESTRUTURA SOLDA LATERAL</t>
+  </si>
+  <si>
+    <t>MANCAL PARAFUSO REGULAVEL</t>
+  </si>
+  <si>
+    <t>PARAFUSO REGULAGEN SOLDA</t>
+  </si>
+  <si>
+    <t>ISOLANTE SOLDA SIMPLES</t>
+  </si>
+  <si>
+    <t>CONJUNTO REDUTOR ZLYJ173</t>
+  </si>
+  <si>
+    <t>CONJUNTO CORRIMAO 1800 PRE</t>
+  </si>
+  <si>
+    <t>LATERAL PISO 3600</t>
+  </si>
+  <si>
+    <t>CONJUNTO PAINEL SEC TINTA</t>
+  </si>
+  <si>
+    <t>CONJUNTO CIL FLEXO LAG 1500</t>
+  </si>
+  <si>
+    <t>CONJUNTO MESA GAVETA 1500</t>
   </si>
 </sst>
 </file>
@@ -510,7 +465,7 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,421 +491,370 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>21789</v>
+        <v>21790</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>21791</v>
+        <v>21796</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>21793</v>
+        <v>21801</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>21794</v>
+        <v>21883</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>21795</v>
+        <v>21888</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>21797</v>
+        <v>21907</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>21798</v>
+        <v>21943</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>21802</v>
+        <v>21944</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>21804</v>
+        <v>21948</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>21811</v>
+        <v>21952</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>21812</v>
+        <v>21966</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>21814</v>
+        <v>21972</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>21823</v>
+        <v>21983</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>21846</v>
+        <v>22015</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>21847</v>
+        <v>22018</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>21852</v>
+        <v>22022</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>21853</v>
+        <v>22036</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>21854</v>
+        <v>22038</v>
       </c>
       <c r="B19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>21855</v>
+        <v>22060</v>
       </c>
       <c r="B20" t="s">
         <v>23</v>
       </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>21856</v>
+        <v>22078</v>
       </c>
       <c r="B21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>21858</v>
+        <v>21153</v>
       </c>
       <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>21865</v>
+        <v>21524</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
       </c>
-      <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>21872</v>
+        <v>21663</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
       </c>
-      <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>21887</v>
-      </c>
-      <c r="B25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>21891</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>21901</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>21902</v>
-      </c>
-      <c r="B28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>21910</v>
-      </c>
-      <c r="B29" t="s">
-        <v>32</v>
-      </c>
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>21913</v>
-      </c>
-      <c r="B30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>21914</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>21915</v>
-      </c>
-      <c r="B32" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>21918</v>
-      </c>
-      <c r="B33" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>21920</v>
-      </c>
-      <c r="B34" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>21922</v>
-      </c>
-      <c r="B35" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>21923</v>
-      </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>21924</v>
-      </c>
-      <c r="B37" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>21525</v>
-      </c>
-      <c r="B38" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>19539</v>
-      </c>
-      <c r="B39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" t="s">
-        <v>4</v>
-      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -959,127 +863,631 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FCEDF8-12C5-48D7-8C34-825F1F7DC766}">
-  <dimension ref="A2:A39"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="A1:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>21790</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>21796</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>21801</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>21883</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>21888</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>21907</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>21943</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>21944</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>21948</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>21952</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>21966</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>21972</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>21983</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>22015</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>22018</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>22022</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>22036</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>22038</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>22060</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>22078</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21153</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21524</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>21663</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
